--- a/data/pca/factorExposure/factorExposure_2018-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01207614815991026</v>
+        <v>0.01916947261043618</v>
       </c>
       <c r="C2">
-        <v>-0.03358381455716215</v>
+        <v>-0.01661711339972462</v>
       </c>
       <c r="D2">
-        <v>-0.011809166702347</v>
+        <v>0.02880132440048923</v>
       </c>
       <c r="E2">
-        <v>0.01315241384271295</v>
+        <v>0.01824421231624896</v>
       </c>
       <c r="F2">
-        <v>-0.1156099131267597</v>
+        <v>-0.004898736996112124</v>
       </c>
       <c r="G2">
-        <v>-0.07630944103924839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04685917261246079</v>
+      </c>
+      <c r="H2">
+        <v>0.04807169941299747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08290158693892465</v>
+        <v>0.07680220020815896</v>
       </c>
       <c r="C3">
-        <v>-0.01230394454654389</v>
+        <v>0.0154560605246823</v>
       </c>
       <c r="D3">
-        <v>-0.07938172174232276</v>
+        <v>0.06786103289684832</v>
       </c>
       <c r="E3">
-        <v>0.09538707711297092</v>
+        <v>0.009787314773773129</v>
       </c>
       <c r="F3">
-        <v>-0.4056135562462332</v>
+        <v>0.01750003757258054</v>
       </c>
       <c r="G3">
-        <v>-0.2498967361210028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1758238576038046</v>
+      </c>
+      <c r="H3">
+        <v>0.1535518374629083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04188418091941858</v>
+        <v>0.04434529268045845</v>
       </c>
       <c r="C4">
-        <v>-0.001300556625681797</v>
+        <v>-0.001384771778053069</v>
       </c>
       <c r="D4">
-        <v>0.0008277831072292624</v>
+        <v>0.05958538747386716</v>
       </c>
       <c r="E4">
-        <v>-0.04787039038488262</v>
+        <v>-0.01741052054092094</v>
       </c>
       <c r="F4">
-        <v>-0.08187266536161256</v>
+        <v>-0.0446133771081074</v>
       </c>
       <c r="G4">
-        <v>-0.04300986203841085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04121108731327169</v>
+      </c>
+      <c r="H4">
+        <v>0.05845888449611452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03329769953589191</v>
+        <v>0.02540057991648375</v>
       </c>
       <c r="C6">
-        <v>-0.01169541997609144</v>
+        <v>0.001729518832718572</v>
       </c>
       <c r="D6">
-        <v>-0.005059707393029422</v>
+        <v>0.06150305284371409</v>
       </c>
       <c r="E6">
-        <v>-0.02421175623775333</v>
+        <v>-0.003455719328049466</v>
       </c>
       <c r="F6">
-        <v>-0.01260943824343815</v>
+        <v>-0.0305022029451869</v>
       </c>
       <c r="G6">
-        <v>0.01675190500654429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01108394958256206</v>
+      </c>
+      <c r="H6">
+        <v>0.06254038068694379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01652733863730331</v>
+        <v>0.02002298676858554</v>
       </c>
       <c r="C7">
-        <v>-0.0009980169511464732</v>
+        <v>-0.000779858958922398</v>
       </c>
       <c r="D7">
-        <v>-0.01629248835268571</v>
+        <v>0.03179781595700407</v>
       </c>
       <c r="E7">
-        <v>-0.02504472330037224</v>
+        <v>-0.04186525841061985</v>
       </c>
       <c r="F7">
-        <v>-0.05334992216658747</v>
+        <v>-0.002517653554760495</v>
       </c>
       <c r="G7">
-        <v>-0.06622671757507161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02553032902831041</v>
+      </c>
+      <c r="H7">
+        <v>0.03955536514769837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01502319429068783</v>
+        <v>0.004465803684906531</v>
       </c>
       <c r="C8">
-        <v>-0.00937968432987463</v>
+        <v>0.002424310896414784</v>
       </c>
       <c r="D8">
-        <v>-0.0130125806401749</v>
+        <v>0.01436016842658324</v>
       </c>
       <c r="E8">
-        <v>-0.03467173004447656</v>
+        <v>-0.005088971270589453</v>
       </c>
       <c r="F8">
-        <v>-0.1029093261637919</v>
+        <v>-0.01791599877687032</v>
       </c>
       <c r="G8">
-        <v>-0.05369719971108654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04229365996719476</v>
+      </c>
+      <c r="H8">
+        <v>0.04308997197058617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03189305354311588</v>
+        <v>0.03479891245977136</v>
       </c>
       <c r="C9">
-        <v>-0.005296426800731942</v>
+        <v>0.001189590128697338</v>
       </c>
       <c r="D9">
-        <v>-0.006366101565259646</v>
+        <v>0.04290389520483533</v>
       </c>
       <c r="E9">
-        <v>-0.0341582240352967</v>
+        <v>-0.007735287909748372</v>
       </c>
       <c r="F9">
-        <v>-0.09740348738366399</v>
+        <v>-0.02077359390267651</v>
       </c>
       <c r="G9">
-        <v>-0.04637624647820023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04559230094677898</v>
+      </c>
+      <c r="H9">
+        <v>0.0573351893388467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03786471105873467</v>
+        <v>0.1124980313508566</v>
       </c>
       <c r="C10">
-        <v>0.06490510072225693</v>
+        <v>-0.0002261403717364347</v>
       </c>
       <c r="D10">
-        <v>0.07417783558752775</v>
+        <v>-0.1632625132168175</v>
       </c>
       <c r="E10">
-        <v>0.1275692193113489</v>
+        <v>-0.00160654341815785</v>
       </c>
       <c r="F10">
-        <v>-0.0472640237610349</v>
+        <v>0.03587988768488278</v>
       </c>
       <c r="G10">
-        <v>-0.01704385088518801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03176021584656125</v>
+      </c>
+      <c r="H10">
+        <v>0.003129740664251626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03045213077494184</v>
+        <v>0.02087489311673078</v>
       </c>
       <c r="C11">
-        <v>-0.02338626881786671</v>
+        <v>0.01263455234568135</v>
       </c>
       <c r="D11">
-        <v>-0.01503436359390134</v>
+        <v>0.04728323488238408</v>
       </c>
       <c r="E11">
-        <v>-0.02765976782393066</v>
+        <v>0.00193203949663654</v>
       </c>
       <c r="F11">
-        <v>-0.05349483986611019</v>
+        <v>-0.01198639530046837</v>
       </c>
       <c r="G11">
-        <v>-0.02315804280045818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02748257734839291</v>
+      </c>
+      <c r="H11">
+        <v>0.050121003888244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03918829999186137</v>
+        <v>0.02539634535604829</v>
       </c>
       <c r="C12">
-        <v>-0.02441934855036602</v>
+        <v>0.009036682218907266</v>
       </c>
       <c r="D12">
-        <v>-0.007963346355556048</v>
+        <v>0.04601152394022848</v>
       </c>
       <c r="E12">
-        <v>-0.03511668969668148</v>
+        <v>-0.008272650697800876</v>
       </c>
       <c r="F12">
-        <v>-0.02643370418302049</v>
+        <v>-0.01503172193432112</v>
       </c>
       <c r="G12">
-        <v>-0.01247067330603533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007660502935598322</v>
+      </c>
+      <c r="H12">
+        <v>0.02166355499028846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01415649483324906</v>
+        <v>0.02655742422319785</v>
       </c>
       <c r="C13">
-        <v>-0.02098303185477693</v>
+        <v>-0.01253038916167677</v>
       </c>
       <c r="D13">
-        <v>0.003137891807356684</v>
+        <v>0.0218033830016989</v>
       </c>
       <c r="E13">
-        <v>0.0007164237367513931</v>
+        <v>0.01195660025521539</v>
       </c>
       <c r="F13">
-        <v>-0.08750747431295426</v>
+        <v>-0.02201899670523114</v>
       </c>
       <c r="G13">
-        <v>-0.04508001400510904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06127705211291066</v>
+      </c>
+      <c r="H13">
+        <v>0.07545573622306953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01498022648591344</v>
+        <v>0.01730254837743905</v>
       </c>
       <c r="C14">
-        <v>-0.0006022394668854931</v>
+        <v>-0.0001522932761387157</v>
       </c>
       <c r="D14">
-        <v>0.0003779862306529902</v>
+        <v>0.01397439634344051</v>
       </c>
       <c r="E14">
-        <v>-0.02827410776375212</v>
+        <v>-0.01391471278558344</v>
       </c>
       <c r="F14">
-        <v>-0.06147380697623104</v>
+        <v>-0.01469925743113143</v>
       </c>
       <c r="G14">
-        <v>-0.04988677591086376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03966045459852416</v>
+      </c>
+      <c r="H14">
+        <v>0.01379561058902761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02959272649105755</v>
+        <v>0.02297558544698313</v>
       </c>
       <c r="C16">
-        <v>-0.02923300689485625</v>
+        <v>0.01197928448774979</v>
       </c>
       <c r="D16">
-        <v>-0.01274621547136925</v>
+        <v>0.03883761473676976</v>
       </c>
       <c r="E16">
-        <v>-0.02942548783257331</v>
+        <v>-0.001697791622938521</v>
       </c>
       <c r="F16">
-        <v>-0.05164806037453677</v>
+        <v>-0.01555200769725382</v>
       </c>
       <c r="G16">
-        <v>-0.02123488741469541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02264091412096551</v>
+      </c>
+      <c r="H16">
+        <v>0.03745552428830573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03222520226204841</v>
+        <v>0.02681748148902859</v>
       </c>
       <c r="C19">
-        <v>-0.023921774253784</v>
+        <v>0.001200527179755906</v>
       </c>
       <c r="D19">
-        <v>-0.01527311120317522</v>
+        <v>0.04215962836579614</v>
       </c>
       <c r="E19">
-        <v>-0.02361676619220239</v>
+        <v>-0.005466468732575836</v>
       </c>
       <c r="F19">
-        <v>-0.1051147003219077</v>
+        <v>-0.0253670280452688</v>
       </c>
       <c r="G19">
-        <v>-0.05737985714084656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05678339556957505</v>
+      </c>
+      <c r="H19">
+        <v>0.06322534481826207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005370574609136414</v>
+        <v>0.009624051991771868</v>
       </c>
       <c r="C20">
-        <v>0.002722278543239421</v>
+        <v>-0.004265962113272903</v>
       </c>
       <c r="D20">
-        <v>0.0003881492497273281</v>
+        <v>0.02138601066632427</v>
       </c>
       <c r="E20">
-        <v>-0.02002197816568038</v>
+        <v>-0.00456872665882886</v>
       </c>
       <c r="F20">
-        <v>-0.08237523403867586</v>
+        <v>-0.01479573080792465</v>
       </c>
       <c r="G20">
-        <v>-0.07728241376863539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05327163359033411</v>
+      </c>
+      <c r="H20">
+        <v>0.02843272001836679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.000736722237444992</v>
+        <v>0.01411016371797107</v>
       </c>
       <c r="C21">
-        <v>0.01542116256479122</v>
+        <v>-0.005657693879117391</v>
       </c>
       <c r="D21">
-        <v>-0.02287625721992898</v>
+        <v>0.02557683730162031</v>
       </c>
       <c r="E21">
-        <v>-0.03088745596225097</v>
+        <v>-0.0192642105177437</v>
       </c>
       <c r="F21">
-        <v>-0.04072276713990534</v>
+        <v>-0.008137415426939635</v>
       </c>
       <c r="G21">
-        <v>-0.01312504213744998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04770267945682359</v>
+      </c>
+      <c r="H21">
+        <v>0.04254923000148333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0277199155356115</v>
+        <v>0.01798845781751023</v>
       </c>
       <c r="C24">
-        <v>-0.01964994310974921</v>
+        <v>0.006576232650728769</v>
       </c>
       <c r="D24">
-        <v>-0.002613116616465457</v>
+        <v>0.04238159203887067</v>
       </c>
       <c r="E24">
-        <v>-0.01570241941729292</v>
+        <v>-0.0001419151283672901</v>
       </c>
       <c r="F24">
-        <v>-0.05012070105915869</v>
+        <v>-0.01067479702802828</v>
       </c>
       <c r="G24">
-        <v>-0.01922515061291756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01723930704611403</v>
+      </c>
+      <c r="H24">
+        <v>0.04647416688978485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02929552889739619</v>
+        <v>0.03016977108868619</v>
       </c>
       <c r="C25">
-        <v>-0.01724805721323113</v>
+        <v>0.004556526144067522</v>
       </c>
       <c r="D25">
-        <v>-0.01750937287275958</v>
+        <v>0.04445537252782945</v>
       </c>
       <c r="E25">
-        <v>-0.02663135054022484</v>
+        <v>-0.005601057733965145</v>
       </c>
       <c r="F25">
-        <v>-0.05250049683628225</v>
+        <v>-0.01836034924373184</v>
       </c>
       <c r="G25">
-        <v>-0.0120198500152857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02165913953230407</v>
+      </c>
+      <c r="H25">
+        <v>0.04302134277167945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01678707554038592</v>
+        <v>0.01624289109176517</v>
       </c>
       <c r="C26">
-        <v>-0.01625015675406111</v>
+        <v>-0.01822260467572372</v>
       </c>
       <c r="D26">
-        <v>-0.01934105311163335</v>
+        <v>0.009785019118257444</v>
       </c>
       <c r="E26">
-        <v>0.001574296158771199</v>
+        <v>-0.000769788244867995</v>
       </c>
       <c r="F26">
-        <v>-0.06925820608713955</v>
+        <v>-0.002565907030417872</v>
       </c>
       <c r="G26">
-        <v>-0.04579589674565953</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02957135497283667</v>
+      </c>
+      <c r="H26">
+        <v>0.02482394579741955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05038027103230976</v>
+        <v>0.01981244530305367</v>
       </c>
       <c r="C27">
-        <v>-0.01333011471208675</v>
+        <v>0.007769133916402358</v>
       </c>
       <c r="D27">
-        <v>0.02436307163345433</v>
+        <v>0.01334054170551006</v>
       </c>
       <c r="E27">
-        <v>-0.03532777058846577</v>
+        <v>-0.004790813438240794</v>
       </c>
       <c r="F27">
-        <v>-0.04492878546088026</v>
+        <v>-0.01261653126242017</v>
       </c>
       <c r="G27">
-        <v>-0.04485395481987439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.009701514300193611</v>
+      </c>
+      <c r="H27">
+        <v>-0.003141083008793117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06671140007499879</v>
+        <v>0.1620111313497185</v>
       </c>
       <c r="C28">
-        <v>0.09162419291548345</v>
+        <v>-0.009880008551044471</v>
       </c>
       <c r="D28">
-        <v>0.1030861885017071</v>
+        <v>-0.2109668073542501</v>
       </c>
       <c r="E28">
-        <v>0.1591053676637806</v>
+        <v>-0.01372559731293151</v>
       </c>
       <c r="F28">
-        <v>-0.04462548495394896</v>
+        <v>0.03090472372504569</v>
       </c>
       <c r="G28">
-        <v>-0.01420471232875378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01860876310870649</v>
+      </c>
+      <c r="H28">
+        <v>-0.006593581826923868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02004593240759161</v>
+        <v>0.02221889207144589</v>
       </c>
       <c r="C29">
-        <v>-9.311751089958913e-06</v>
+        <v>0.001524689618506328</v>
       </c>
       <c r="D29">
-        <v>0.0009613630802402205</v>
+        <v>0.01423505400001551</v>
       </c>
       <c r="E29">
-        <v>-0.03615072407278094</v>
+        <v>-0.01441453183964201</v>
       </c>
       <c r="F29">
-        <v>-0.06075831460666434</v>
+        <v>-0.016456494276736</v>
       </c>
       <c r="G29">
-        <v>-0.03707993325638789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03866725771554446</v>
+      </c>
+      <c r="H29">
+        <v>0.005501833020616188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07826564823462402</v>
+        <v>0.04864455355144867</v>
       </c>
       <c r="C30">
-        <v>-0.04707762799079666</v>
+        <v>0.00200079038752642</v>
       </c>
       <c r="D30">
-        <v>0.0006871096040365455</v>
+        <v>0.09051159280668443</v>
       </c>
       <c r="E30">
-        <v>-0.05956927019873993</v>
+        <v>0.03321764281038035</v>
       </c>
       <c r="F30">
-        <v>-0.1125883688440004</v>
+        <v>-0.04915259629440434</v>
       </c>
       <c r="G30">
-        <v>-0.05739400719744182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0607388197408796</v>
+      </c>
+      <c r="H30">
+        <v>0.07862837122860029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05782523819652365</v>
+        <v>0.04875045140183348</v>
       </c>
       <c r="C31">
-        <v>-0.03401541671594378</v>
+        <v>0.01151597529183676</v>
       </c>
       <c r="D31">
-        <v>-0.004741327787261518</v>
+        <v>0.02703641124090864</v>
       </c>
       <c r="E31">
-        <v>-0.01252420683856577</v>
+        <v>0.004899335813759127</v>
       </c>
       <c r="F31">
-        <v>-0.05236581204248768</v>
+        <v>-0.006051233467620244</v>
       </c>
       <c r="G31">
-        <v>-0.04917168707921452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01905718369846382</v>
+      </c>
+      <c r="H31">
+        <v>0.002934064209912128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0157962293624855</v>
+        <v>0.01215853736799636</v>
       </c>
       <c r="C32">
-        <v>-0.002285055485753502</v>
+        <v>0.01398353144737597</v>
       </c>
       <c r="D32">
-        <v>-0.01663699024159376</v>
+        <v>0.0100872711138193</v>
       </c>
       <c r="E32">
-        <v>-0.06937605506648183</v>
+        <v>-0.02796831388629012</v>
       </c>
       <c r="F32">
-        <v>-0.07949120583333841</v>
+        <v>-0.03901567720637484</v>
       </c>
       <c r="G32">
-        <v>-0.0422719022089595</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03111564722429038</v>
+      </c>
+      <c r="H32">
+        <v>0.0568276247774898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04289814804158554</v>
+        <v>0.03087717694779119</v>
       </c>
       <c r="C33">
-        <v>-0.03302054232320925</v>
+        <v>0.001996284484916871</v>
       </c>
       <c r="D33">
-        <v>-0.03639071020783568</v>
+        <v>0.043500460432733</v>
       </c>
       <c r="E33">
-        <v>-0.02345954314338867</v>
+        <v>0.01991394165052715</v>
       </c>
       <c r="F33">
-        <v>-0.08527155231146537</v>
+        <v>-0.0005194444070834691</v>
       </c>
       <c r="G33">
-        <v>-0.05042892492308999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0465314797384735</v>
+      </c>
+      <c r="H33">
+        <v>0.05073005900627502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02751500986579028</v>
+        <v>0.02774436919236867</v>
       </c>
       <c r="C34">
-        <v>-0.02416799917291785</v>
+        <v>0.02030054085216339</v>
       </c>
       <c r="D34">
-        <v>-0.01185275434177411</v>
+        <v>0.04097762753868486</v>
       </c>
       <c r="E34">
-        <v>-0.03365996846320315</v>
+        <v>-0.01192462179191887</v>
       </c>
       <c r="F34">
-        <v>-0.05810253320701845</v>
+        <v>-0.01813299791142501</v>
       </c>
       <c r="G34">
-        <v>-0.01961165938740379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01395423547561605</v>
+      </c>
+      <c r="H34">
+        <v>0.0371448187913247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01381086983198269</v>
+        <v>0.01720887850102241</v>
       </c>
       <c r="C36">
-        <v>0.0008813178138306427</v>
+        <v>-0.005974573502951819</v>
       </c>
       <c r="D36">
-        <v>-0.005245336119045818</v>
+        <v>0.005460946173524208</v>
       </c>
       <c r="E36">
-        <v>-0.02134058289909145</v>
+        <v>-0.008741314233323449</v>
       </c>
       <c r="F36">
-        <v>-0.03949250250322504</v>
+        <v>-0.002513381335615736</v>
       </c>
       <c r="G36">
-        <v>-0.0297576828740539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0209447070949143</v>
+      </c>
+      <c r="H36">
+        <v>0.01667522639273531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002326336833896542</v>
+        <v>0.02544398480025726</v>
       </c>
       <c r="C38">
-        <v>0.0007110536580656242</v>
+        <v>0.01629861003275601</v>
       </c>
       <c r="D38">
-        <v>-0.01586546961445146</v>
+        <v>0.01332121313081193</v>
       </c>
       <c r="E38">
-        <v>0.02913314442587222</v>
+        <v>0.001275858336403788</v>
       </c>
       <c r="F38">
-        <v>-0.03810158929961206</v>
+        <v>-0.008938240572574561</v>
       </c>
       <c r="G38">
-        <v>-0.01171374007535861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02320479155245751</v>
+      </c>
+      <c r="H38">
+        <v>0.04436105617215735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02874194535076389</v>
+        <v>0.01509466542024802</v>
       </c>
       <c r="C39">
-        <v>-0.03759440353450101</v>
+        <v>0.01003818183406752</v>
       </c>
       <c r="D39">
-        <v>-0.01917599755917451</v>
+        <v>0.08707219063867852</v>
       </c>
       <c r="E39">
-        <v>-0.03373652982806317</v>
+        <v>0.009047315832498532</v>
       </c>
       <c r="F39">
-        <v>-0.07027486872281294</v>
+        <v>-0.01770959380871906</v>
       </c>
       <c r="G39">
-        <v>-0.02562703185410102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03979698326232665</v>
+      </c>
+      <c r="H39">
+        <v>0.07817563681463055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03238444580167101</v>
+        <v>0.03046411838774689</v>
       </c>
       <c r="C40">
-        <v>-0.06620351300641478</v>
+        <v>0.002706575032872233</v>
       </c>
       <c r="D40">
-        <v>0.01331240446149892</v>
+        <v>0.03283640070226639</v>
       </c>
       <c r="E40">
-        <v>-0.005956527072437046</v>
+        <v>0.02585822428939585</v>
       </c>
       <c r="F40">
-        <v>-0.0917891046103612</v>
+        <v>-0.03542145287376095</v>
       </c>
       <c r="G40">
-        <v>-0.04707991714187625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02237303939687386</v>
+      </c>
+      <c r="H40">
+        <v>0.06563079818277258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001792311764574832</v>
+        <v>0.01164985218640381</v>
       </c>
       <c r="C41">
-        <v>-0.0002590705421874805</v>
+        <v>-0.003216382382614661</v>
       </c>
       <c r="D41">
-        <v>-0.00853293933949506</v>
+        <v>-0.01343550073157737</v>
       </c>
       <c r="E41">
-        <v>-0.0003405075635369971</v>
+        <v>-0.001305016639225039</v>
       </c>
       <c r="F41">
-        <v>-0.01541770862433986</v>
+        <v>0.0031011839428684</v>
       </c>
       <c r="G41">
-        <v>-0.05076580107073952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0007522289100327794</v>
+      </c>
+      <c r="H41">
+        <v>-0.004577304019264408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3358119957366314</v>
+        <v>0.1551289355891688</v>
       </c>
       <c r="C42">
-        <v>0.05820429315271489</v>
+        <v>-0.06320183325066799</v>
       </c>
       <c r="D42">
-        <v>-0.7341018555944393</v>
+        <v>0.2381560963874705</v>
       </c>
       <c r="E42">
-        <v>0.4244301372008104</v>
+        <v>0.2263208032978887</v>
       </c>
       <c r="F42">
-        <v>0.3111208335187382</v>
+        <v>0.8947429986015294</v>
       </c>
       <c r="G42">
-        <v>-0.1705961333002238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2061498574386672</v>
+      </c>
+      <c r="H42">
+        <v>0.003384928906021524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0007251713770775049</v>
+        <v>0.0140262748699677</v>
       </c>
       <c r="C43">
-        <v>0.0001820125478016933</v>
+        <v>-0.003174680523814664</v>
       </c>
       <c r="D43">
-        <v>-0.01082771733152445</v>
+        <v>-0.01060383755403273</v>
       </c>
       <c r="E43">
-        <v>-0.0006816764183436942</v>
+        <v>0.002300272404850829</v>
       </c>
       <c r="F43">
-        <v>-0.03398022514387768</v>
+        <v>0.003832603981869117</v>
       </c>
       <c r="G43">
-        <v>-0.04632416639429245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002482957333975044</v>
+      </c>
+      <c r="H43">
+        <v>0.008618461214734391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01643768892685718</v>
+        <v>0.01800233204309265</v>
       </c>
       <c r="C44">
-        <v>0.00113988238655412</v>
+        <v>0.006490041789527542</v>
       </c>
       <c r="D44">
-        <v>-0.01239048277856545</v>
+        <v>0.03599705809574205</v>
       </c>
       <c r="E44">
-        <v>-4.40785941575285e-05</v>
+        <v>-0.006350055164712366</v>
       </c>
       <c r="F44">
-        <v>-0.1149482898944646</v>
+        <v>-0.002027292812496526</v>
       </c>
       <c r="G44">
-        <v>-0.0805046783004036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04218109841122117</v>
+      </c>
+      <c r="H44">
+        <v>0.06673667951443192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01887256103180181</v>
+        <v>0.0139695528864372</v>
       </c>
       <c r="C46">
-        <v>-0.01457660209672333</v>
+        <v>-0.004549749582339824</v>
       </c>
       <c r="D46">
-        <v>-0.01944597819101665</v>
+        <v>0.01471109271636221</v>
       </c>
       <c r="E46">
-        <v>-0.03562240862824893</v>
+        <v>-0.0003664313050668517</v>
       </c>
       <c r="F46">
-        <v>-0.07837645211662954</v>
+        <v>-0.01172067316639236</v>
       </c>
       <c r="G46">
-        <v>-0.0531066099957811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04379548120691008</v>
+      </c>
+      <c r="H46">
+        <v>0.008237034167251177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09196609988735981</v>
+        <v>0.07169842008516406</v>
       </c>
       <c r="C47">
-        <v>-0.03188406556308161</v>
+        <v>0.02877652386927133</v>
       </c>
       <c r="D47">
-        <v>0.004137719291526288</v>
+        <v>0.05162840071132707</v>
       </c>
       <c r="E47">
-        <v>-0.02934260450699071</v>
+        <v>-0.001993075526334762</v>
       </c>
       <c r="F47">
-        <v>-0.04272381713968253</v>
+        <v>-0.01485133980628408</v>
       </c>
       <c r="G47">
-        <v>-0.08147841963526777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008390578248053478</v>
+      </c>
+      <c r="H47">
+        <v>-0.02311093794569905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01807151552650415</v>
+        <v>0.01983988759468789</v>
       </c>
       <c r="C48">
-        <v>-0.00883109448225142</v>
+        <v>0.005702044194504994</v>
       </c>
       <c r="D48">
-        <v>-0.01153054193546699</v>
+        <v>0.01314469974300553</v>
       </c>
       <c r="E48">
-        <v>-0.02044834969907387</v>
+        <v>-0.001185347736553847</v>
       </c>
       <c r="F48">
-        <v>-0.04207591342491553</v>
+        <v>-0.006984441821101585</v>
       </c>
       <c r="G48">
-        <v>-0.02366074387152327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02270432433253356</v>
+      </c>
+      <c r="H48">
+        <v>0.01844831749542761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08760482513775704</v>
+        <v>0.06972357036823192</v>
       </c>
       <c r="C50">
-        <v>-0.0307297986096234</v>
+        <v>0.02568261462725484</v>
       </c>
       <c r="D50">
-        <v>-0.02138265052053646</v>
+        <v>0.05094144710752063</v>
       </c>
       <c r="E50">
-        <v>-0.02893657969309213</v>
+        <v>-0.01436055020529247</v>
       </c>
       <c r="F50">
-        <v>-0.04518177538291634</v>
+        <v>-0.004184024298217215</v>
       </c>
       <c r="G50">
-        <v>-0.03518484408908195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005688317180300925</v>
+      </c>
+      <c r="H50">
+        <v>-0.005602443534862809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01549789671616416</v>
+        <v>0.0194045544184389</v>
       </c>
       <c r="C51">
-        <v>0.00351113984932138</v>
+        <v>-0.0005752174589715835</v>
       </c>
       <c r="D51">
-        <v>0.00507546938063139</v>
+        <v>0.008662527502811294</v>
       </c>
       <c r="E51">
-        <v>0.01455668558482737</v>
+        <v>-0.006610617283615109</v>
       </c>
       <c r="F51">
-        <v>-0.09705594598112799</v>
+        <v>-0.004270964531846951</v>
       </c>
       <c r="G51">
-        <v>-0.06350555998346623</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03824830634951958</v>
+      </c>
+      <c r="H51">
+        <v>0.05115387576191062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09792749766559773</v>
+        <v>0.08320375169119462</v>
       </c>
       <c r="C53">
-        <v>-0.0411685686249536</v>
+        <v>0.0368903593027575</v>
       </c>
       <c r="D53">
-        <v>-0.0007647510592196033</v>
+        <v>0.08860840636378396</v>
       </c>
       <c r="E53">
-        <v>-0.04802617324777568</v>
+        <v>-0.004811095620345468</v>
       </c>
       <c r="F53">
-        <v>0.02382058342624695</v>
+        <v>-0.02996201943508567</v>
       </c>
       <c r="G53">
-        <v>-0.01942901069878322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03713827159108933</v>
+      </c>
+      <c r="H53">
+        <v>-0.03562402672569587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01582604000647346</v>
+        <v>0.02955065952845462</v>
       </c>
       <c r="C54">
-        <v>0.003815685815357543</v>
+        <v>0.008031430148144197</v>
       </c>
       <c r="D54">
-        <v>0.001524954436440434</v>
+        <v>-0.01240111499136309</v>
       </c>
       <c r="E54">
-        <v>-0.02890812978688825</v>
+        <v>-0.007183032066892327</v>
       </c>
       <c r="F54">
-        <v>-0.05103233396286214</v>
+        <v>-0.006143381976795752</v>
       </c>
       <c r="G54">
-        <v>-0.04275843067383023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0384871056505733</v>
+      </c>
+      <c r="H54">
+        <v>0.002385684732883501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09968694860207526</v>
+        <v>0.07040495037642332</v>
       </c>
       <c r="C55">
-        <v>-0.0227385676552715</v>
+        <v>0.03343955479609437</v>
       </c>
       <c r="D55">
-        <v>-0.00600842187038134</v>
+        <v>0.08243131041170604</v>
       </c>
       <c r="E55">
-        <v>-0.06634023926940788</v>
+        <v>-0.01263417034936146</v>
       </c>
       <c r="F55">
-        <v>0.01516062562373522</v>
+        <v>-0.02167051907567628</v>
       </c>
       <c r="G55">
-        <v>-0.04745487757963582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01505774725855899</v>
+      </c>
+      <c r="H55">
+        <v>-0.04462355478050897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1408331761965787</v>
+        <v>0.1181139714508873</v>
       </c>
       <c r="C56">
-        <v>-0.05720065539781566</v>
+        <v>0.05506601956802273</v>
       </c>
       <c r="D56">
-        <v>0.03716721901330127</v>
+        <v>0.1063179203417196</v>
       </c>
       <c r="E56">
-        <v>-0.07508248591934437</v>
+        <v>-0.005405890163647988</v>
       </c>
       <c r="F56">
-        <v>0.05816573858289643</v>
+        <v>-0.05372437179497982</v>
       </c>
       <c r="G56">
-        <v>0.02329481845607115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07168855522998652</v>
+      </c>
+      <c r="H56">
+        <v>-0.06040145558843173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04635823478084669</v>
+        <v>0.03572325749242915</v>
       </c>
       <c r="C57">
-        <v>-0.02010138782997224</v>
+        <v>-0.01104545813246055</v>
       </c>
       <c r="D57">
-        <v>-0.00991506355361685</v>
+        <v>0.03324622479347136</v>
       </c>
       <c r="E57">
-        <v>0.01360844606033379</v>
+        <v>0.01091286384815377</v>
       </c>
       <c r="F57">
-        <v>-0.05586162023714729</v>
+        <v>-0.007543655225283735</v>
       </c>
       <c r="G57">
-        <v>-0.0332170783768931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0723066539010407</v>
+      </c>
+      <c r="H57">
+        <v>0.05092130829729886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2133703227368889</v>
+        <v>0.1365450452321884</v>
       </c>
       <c r="C58">
-        <v>-0.1105143958088359</v>
+        <v>0.04818297738240872</v>
       </c>
       <c r="D58">
-        <v>-0.1066872129960786</v>
+        <v>0.1539966167906639</v>
       </c>
       <c r="E58">
-        <v>-0.07686470712084296</v>
+        <v>0.2221083359128304</v>
       </c>
       <c r="F58">
-        <v>-0.3977808851013871</v>
+        <v>0.0790760347242211</v>
       </c>
       <c r="G58">
-        <v>0.03235521090499746</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8112072268382052</v>
+      </c>
+      <c r="H58">
+        <v>-0.3945187218367311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05718252715726654</v>
+        <v>0.1739168326251575</v>
       </c>
       <c r="C59">
-        <v>0.04776681278944189</v>
+        <v>-0.001139166393999641</v>
       </c>
       <c r="D59">
-        <v>0.1153919694605478</v>
+        <v>-0.2095083710846575</v>
       </c>
       <c r="E59">
-        <v>0.1461082199167819</v>
+        <v>0.004871108888075626</v>
       </c>
       <c r="F59">
-        <v>-0.06397898828291686</v>
+        <v>0.002285151340875308</v>
       </c>
       <c r="G59">
-        <v>0.0276479444112451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01925530117783546</v>
+      </c>
+      <c r="H59">
+        <v>0.02833151957916187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1522788142453816</v>
+        <v>0.1935663130163557</v>
       </c>
       <c r="C60">
-        <v>-0.08079260619572176</v>
+        <v>0.0279118156201993</v>
       </c>
       <c r="D60">
-        <v>-0.02013854159076106</v>
+        <v>0.02901037403463008</v>
       </c>
       <c r="E60">
-        <v>0.09465678567385255</v>
+        <v>0.05417824339153371</v>
       </c>
       <c r="F60">
-        <v>-0.1695164710892908</v>
+        <v>-0.05372960880228207</v>
       </c>
       <c r="G60">
-        <v>0.314793613618731</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02676715813975133</v>
+      </c>
+      <c r="H60">
+        <v>0.3685743832920295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02158567120483924</v>
+        <v>0.02112730665195828</v>
       </c>
       <c r="C61">
-        <v>-0.02406403310843981</v>
+        <v>0.01193071175714023</v>
       </c>
       <c r="D61">
-        <v>-0.01414762564430737</v>
+        <v>0.05517889270335141</v>
       </c>
       <c r="E61">
-        <v>-0.0231422626486086</v>
+        <v>-0.001062959124771088</v>
       </c>
       <c r="F61">
-        <v>-0.03422060290505418</v>
+        <v>-0.02113221625530173</v>
       </c>
       <c r="G61">
-        <v>-0.009823064705333574</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02577963103802902</v>
+      </c>
+      <c r="H61">
+        <v>0.05875312956763443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009113571842056587</v>
+        <v>0.01121390870310607</v>
       </c>
       <c r="C63">
-        <v>-0.01731539573082773</v>
+        <v>-0.0007858833857017647</v>
       </c>
       <c r="D63">
-        <v>-0.01933179333729639</v>
+        <v>0.02378375858511383</v>
       </c>
       <c r="E63">
-        <v>-0.0243528954764714</v>
+        <v>-0.005387117306113754</v>
       </c>
       <c r="F63">
-        <v>-0.01542145951206591</v>
+        <v>-0.01095393568698212</v>
       </c>
       <c r="G63">
-        <v>-0.06912444769197026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01685591082214397</v>
+      </c>
+      <c r="H63">
+        <v>0.01351319997339743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03781696743499444</v>
+        <v>0.03862054490713639</v>
       </c>
       <c r="C64">
-        <v>0.004849305458695875</v>
+        <v>0.01108279115926016</v>
       </c>
       <c r="D64">
-        <v>-0.002488303206801075</v>
+        <v>0.04121569293550961</v>
       </c>
       <c r="E64">
-        <v>-0.05349309102970668</v>
+        <v>-0.01193573215414594</v>
       </c>
       <c r="F64">
-        <v>-0.04518965478320263</v>
+        <v>-0.003672195115569567</v>
       </c>
       <c r="G64">
-        <v>-0.05511726492869203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.006097473428608439</v>
+      </c>
+      <c r="H64">
+        <v>0.04236623605054631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03694895577860608</v>
+        <v>0.03833714295843501</v>
       </c>
       <c r="C65">
-        <v>-0.01347778818403574</v>
+        <v>0.004554332520430973</v>
       </c>
       <c r="D65">
-        <v>-0.004951607609359465</v>
+        <v>0.07158840731096854</v>
       </c>
       <c r="E65">
-        <v>-0.02628936985785086</v>
+        <v>-0.005521196064485377</v>
       </c>
       <c r="F65">
-        <v>-0.007387587761589815</v>
+        <v>-0.03858427971509933</v>
       </c>
       <c r="G65">
-        <v>0.02307097327749974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.004001604932080468</v>
+      </c>
+      <c r="H65">
+        <v>0.07350698866068464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03359774445288018</v>
+        <v>0.02366370509947344</v>
       </c>
       <c r="C66">
-        <v>-0.05468374504442546</v>
+        <v>0.01793052101031079</v>
       </c>
       <c r="D66">
-        <v>-0.01617501266399544</v>
+        <v>0.109040290329025</v>
       </c>
       <c r="E66">
-        <v>-0.04458178366839598</v>
+        <v>0.01084711808481712</v>
       </c>
       <c r="F66">
-        <v>-0.05501271350972177</v>
+        <v>-0.03875246812320739</v>
       </c>
       <c r="G66">
-        <v>-0.01047021569912288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03644620382778656</v>
+      </c>
+      <c r="H66">
+        <v>0.08273007997534917</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0119674180790713</v>
+        <v>0.04574326386482416</v>
       </c>
       <c r="C67">
-        <v>-0.007211945920598459</v>
+        <v>0.01815115299765619</v>
       </c>
       <c r="D67">
-        <v>-0.005617424654800689</v>
+        <v>0.01533932601880462</v>
       </c>
       <c r="E67">
-        <v>0.03466244676956087</v>
+        <v>0.003877383335669548</v>
       </c>
       <c r="F67">
-        <v>-0.02011751930449063</v>
+        <v>-0.01867060569305471</v>
       </c>
       <c r="G67">
-        <v>-0.005165321959789008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01293795678087945</v>
+      </c>
+      <c r="H67">
+        <v>0.04489165202669092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07591199582983726</v>
+        <v>0.1706248962347597</v>
       </c>
       <c r="C68">
-        <v>0.06693249036774043</v>
+        <v>-0.02537126596596495</v>
       </c>
       <c r="D68">
-        <v>0.1277272687282212</v>
+        <v>-0.2284548591022528</v>
       </c>
       <c r="E68">
-        <v>0.1507823116305334</v>
+        <v>0.002487636338045311</v>
       </c>
       <c r="F68">
-        <v>-0.04859944828705659</v>
+        <v>0.04005923780258554</v>
       </c>
       <c r="G68">
-        <v>0.0624851494378704</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02738253046043393</v>
+      </c>
+      <c r="H68">
+        <v>-0.04900734067247646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06600654116177364</v>
+        <v>0.05976426566871473</v>
       </c>
       <c r="C69">
-        <v>-0.04295678311185693</v>
+        <v>0.02960123190716282</v>
       </c>
       <c r="D69">
-        <v>0.01618493295469001</v>
+        <v>0.04763929350862196</v>
       </c>
       <c r="E69">
-        <v>-0.02209813699036907</v>
+        <v>-0.0008452105644522846</v>
       </c>
       <c r="F69">
-        <v>-0.03174462778420889</v>
+        <v>-0.02942411996288193</v>
       </c>
       <c r="G69">
-        <v>-0.06901543208885248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01187815382860218</v>
+      </c>
+      <c r="H69">
+        <v>0.007823556994594244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07880516940168741</v>
+        <v>0.158069136262615</v>
       </c>
       <c r="C71">
-        <v>0.06815846708825052</v>
+        <v>-0.0118167961507242</v>
       </c>
       <c r="D71">
-        <v>0.110861454975787</v>
+        <v>-0.1884935867015747</v>
       </c>
       <c r="E71">
-        <v>0.2049134842987415</v>
+        <v>0.01010231779058633</v>
       </c>
       <c r="F71">
-        <v>-0.04326840047563092</v>
+        <v>0.04759637440499029</v>
       </c>
       <c r="G71">
-        <v>-0.01486040603859265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03098671912545575</v>
+      </c>
+      <c r="H71">
+        <v>-0.02201572886338795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1136158034715692</v>
+        <v>0.07400205647815752</v>
       </c>
       <c r="C72">
-        <v>-0.06890068025413293</v>
+        <v>0.03995790315649262</v>
       </c>
       <c r="D72">
-        <v>0.02203699155743809</v>
+        <v>0.08183207320359187</v>
       </c>
       <c r="E72">
-        <v>-0.04408685663532592</v>
+        <v>0.01650271546065596</v>
       </c>
       <c r="F72">
-        <v>-0.0737822598906684</v>
+        <v>-0.06601549217162224</v>
       </c>
       <c r="G72">
-        <v>0.11248517329758</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0224840135251114</v>
+      </c>
+      <c r="H72">
+        <v>0.1320166406143564</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2201373483034204</v>
+        <v>0.2558685883979322</v>
       </c>
       <c r="C73">
-        <v>-0.1077414102248689</v>
+        <v>0.04258577076255764</v>
       </c>
       <c r="D73">
-        <v>-0.02271328206933865</v>
+        <v>0.09735759830270269</v>
       </c>
       <c r="E73">
-        <v>0.1842058799124859</v>
+        <v>0.09453122327543075</v>
       </c>
       <c r="F73">
-        <v>-0.203039865355345</v>
+        <v>-0.05931398962246889</v>
       </c>
       <c r="G73">
-        <v>0.4586018117338759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04403424959804873</v>
+      </c>
+      <c r="H73">
+        <v>0.479449688743229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.133459591637135</v>
+        <v>0.113666092830391</v>
       </c>
       <c r="C74">
-        <v>-0.03811434356108242</v>
+        <v>0.05415613587686571</v>
       </c>
       <c r="D74">
-        <v>0.01143163086649995</v>
+        <v>0.1105889382033196</v>
       </c>
       <c r="E74">
-        <v>-0.0534389503757643</v>
+        <v>-0.006980464638690173</v>
       </c>
       <c r="F74">
-        <v>0.07263324190921061</v>
+        <v>-0.03895823880958504</v>
       </c>
       <c r="G74">
-        <v>-0.009717317665002924</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05813953053603566</v>
+      </c>
+      <c r="H74">
+        <v>-0.02688907183098116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2268004252260483</v>
+        <v>0.2240101021709953</v>
       </c>
       <c r="C75">
-        <v>-0.1059274752141817</v>
+        <v>0.1001994553041044</v>
       </c>
       <c r="D75">
-        <v>0.07560304385447625</v>
+        <v>0.1677956912839413</v>
       </c>
       <c r="E75">
-        <v>-0.1104563722948517</v>
+        <v>0.01088434801768654</v>
       </c>
       <c r="F75">
-        <v>0.08950351434430368</v>
+        <v>-0.09944623612718827</v>
       </c>
       <c r="G75">
-        <v>-0.02348157819069081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1214303202244697</v>
+      </c>
+      <c r="H75">
+        <v>-0.1371826011011644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2795192296588693</v>
+        <v>0.1862713258393933</v>
       </c>
       <c r="C76">
-        <v>-0.09499314797866446</v>
+        <v>0.09283848522444918</v>
       </c>
       <c r="D76">
-        <v>0.1043661459054347</v>
+        <v>0.1694614574622247</v>
       </c>
       <c r="E76">
-        <v>-0.1637224350905889</v>
+        <v>-0.0376471666219849</v>
       </c>
       <c r="F76">
-        <v>0.1631897718445664</v>
+        <v>-0.09262402022034437</v>
       </c>
       <c r="G76">
-        <v>0.003479087828632106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1143062134868183</v>
+      </c>
+      <c r="H76">
+        <v>-0.1330655318275401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1281226527055193</v>
+        <v>0.06780789723337025</v>
       </c>
       <c r="C77">
-        <v>-0.05727067685153765</v>
+        <v>0.01488727064894588</v>
       </c>
       <c r="D77">
-        <v>-0.100409441886007</v>
+        <v>0.08216712922327128</v>
       </c>
       <c r="E77">
-        <v>-0.05293773285119919</v>
+        <v>0.0152706351140165</v>
       </c>
       <c r="F77">
-        <v>-0.1950971562250246</v>
+        <v>0.01487306735578367</v>
       </c>
       <c r="G77">
-        <v>-0.2538555535787397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08069332051829328</v>
+      </c>
+      <c r="H77">
+        <v>0.01443470652346187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07443201334809504</v>
+        <v>0.03658514641399617</v>
       </c>
       <c r="C78">
-        <v>-0.03451589048271825</v>
+        <v>0.01524954047525423</v>
       </c>
       <c r="D78">
-        <v>-0.05183538254504818</v>
+        <v>0.06875647324314701</v>
       </c>
       <c r="E78">
-        <v>-0.07357453043175088</v>
+        <v>-0.000836051711013</v>
       </c>
       <c r="F78">
-        <v>-0.1135550084081029</v>
+        <v>-0.02004666194327642</v>
       </c>
       <c r="G78">
-        <v>-0.02801289407304006</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06403070783953915</v>
+      </c>
+      <c r="H78">
+        <v>0.08546525719423041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2654950868430142</v>
+        <v>0.1296324635426876</v>
       </c>
       <c r="C80">
-        <v>0.8751917350330271</v>
+        <v>0.03641085421727119</v>
       </c>
       <c r="D80">
-        <v>-0.06863536301111575</v>
+        <v>0.1020257698745824</v>
       </c>
       <c r="E80">
-        <v>-0.3428942197882638</v>
+        <v>-0.9293208165971547</v>
       </c>
       <c r="F80">
-        <v>-0.05947216131356574</v>
+        <v>0.2314245113741259</v>
       </c>
       <c r="G80">
-        <v>0.1127389220120052</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1573986430232041</v>
+      </c>
+      <c r="H80">
+        <v>0.004767130807794811</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1786704131282673</v>
+        <v>0.1491226197068888</v>
       </c>
       <c r="C81">
-        <v>-0.07308282000532586</v>
+        <v>0.0657289604196088</v>
       </c>
       <c r="D81">
-        <v>0.08069323761719333</v>
+        <v>0.1102507649568149</v>
       </c>
       <c r="E81">
-        <v>-0.09148383201871231</v>
+        <v>-0.01094571521609352</v>
       </c>
       <c r="F81">
-        <v>0.1044617876700858</v>
+        <v>-0.06716879696907184</v>
       </c>
       <c r="G81">
-        <v>0.01257016407148378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0808184585484247</v>
+      </c>
+      <c r="H81">
+        <v>-0.08862386836129235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03377608440440021</v>
+        <v>0.03261440031733667</v>
       </c>
       <c r="C83">
-        <v>-0.02454790912841811</v>
+        <v>0.006549324671851242</v>
       </c>
       <c r="D83">
-        <v>-0.01684199963570485</v>
+        <v>0.02462047084847517</v>
       </c>
       <c r="E83">
-        <v>0.002999679951683701</v>
+        <v>0.008617542050831487</v>
       </c>
       <c r="F83">
-        <v>-0.06874728602620322</v>
+        <v>-0.009822451262840176</v>
       </c>
       <c r="G83">
-        <v>-0.033878580714414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04700158705155143</v>
+      </c>
+      <c r="H83">
+        <v>0.04137801506152113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2636472007816353</v>
+        <v>0.2095787449909354</v>
       </c>
       <c r="C85">
-        <v>-0.08988349353445861</v>
+        <v>0.08480351885397996</v>
       </c>
       <c r="D85">
-        <v>0.078778650352736</v>
+        <v>0.1752111597802535</v>
       </c>
       <c r="E85">
-        <v>-0.1237963061775076</v>
+        <v>0.004993837158378305</v>
       </c>
       <c r="F85">
-        <v>0.1101588388687303</v>
+        <v>-0.08146122151086327</v>
       </c>
       <c r="G85">
-        <v>-0.02520987163077448</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1329599300339324</v>
+      </c>
+      <c r="H85">
+        <v>-0.09642191996399924</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007896689650982924</v>
+        <v>0.02423069161743343</v>
       </c>
       <c r="C86">
-        <v>-0.002905342941879265</v>
+        <v>0.004318002055386769</v>
       </c>
       <c r="D86">
-        <v>-0.03099714895755789</v>
+        <v>0.03712380473228911</v>
       </c>
       <c r="E86">
-        <v>-0.02755548988884527</v>
+        <v>-0.0001004276705089457</v>
       </c>
       <c r="F86">
-        <v>-0.07694616597884132</v>
+        <v>0.003843854890072332</v>
       </c>
       <c r="G86">
-        <v>-0.0618362428221278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0558229458577677</v>
+      </c>
+      <c r="H86">
+        <v>0.09414883427625757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04192464228977563</v>
+        <v>0.02392620502392655</v>
       </c>
       <c r="C87">
-        <v>0.003163710037109661</v>
+        <v>0.005214720099372086</v>
       </c>
       <c r="D87">
-        <v>-0.02270673758071256</v>
+        <v>0.04826605496667459</v>
       </c>
       <c r="E87">
-        <v>-0.01042239918788503</v>
+        <v>-0.003726475666916607</v>
       </c>
       <c r="F87">
-        <v>-0.1143024829940045</v>
+        <v>-0.004819980091622365</v>
       </c>
       <c r="G87">
-        <v>-0.03880504799768893</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08106407371240097</v>
+      </c>
+      <c r="H87">
+        <v>0.08144221042250381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01515734004350509</v>
+        <v>0.04280147081366228</v>
       </c>
       <c r="C88">
-        <v>0.007519384199417085</v>
+        <v>-0.009664713484605273</v>
       </c>
       <c r="D88">
-        <v>0.01853547793465117</v>
+        <v>0.01969267188858966</v>
       </c>
       <c r="E88">
-        <v>-0.01730474848505138</v>
+        <v>-0.01234371569223599</v>
       </c>
       <c r="F88">
-        <v>-0.001613736547139342</v>
+        <v>-0.01857471963910188</v>
       </c>
       <c r="G88">
-        <v>-0.05822944877332779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0007083703238247935</v>
+      </c>
+      <c r="H88">
+        <v>0.01990376010351906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1105098365039016</v>
+        <v>0.2756683885770387</v>
       </c>
       <c r="C89">
-        <v>0.09793807549626392</v>
+        <v>-0.02316194013142339</v>
       </c>
       <c r="D89">
-        <v>0.1917469112965951</v>
+        <v>-0.3378082995762237</v>
       </c>
       <c r="E89">
-        <v>0.2540463481312604</v>
+        <v>0.009442241835049572</v>
       </c>
       <c r="F89">
-        <v>-0.0872996589706065</v>
+        <v>0.025691426884607</v>
       </c>
       <c r="G89">
-        <v>-0.01187699615355636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.002121587755010493</v>
+      </c>
+      <c r="H89">
+        <v>0.01000876696799801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09318341743019237</v>
+        <v>0.2257262097829805</v>
       </c>
       <c r="C90">
-        <v>0.137820608828316</v>
+        <v>-0.02247920367108314</v>
       </c>
       <c r="D90">
-        <v>0.2138424115073504</v>
+        <v>-0.3103180408134404</v>
       </c>
       <c r="E90">
-        <v>0.2646749583350697</v>
+        <v>0.004667037157728564</v>
       </c>
       <c r="F90">
-        <v>-0.03759821885281675</v>
+        <v>0.05202600920333373</v>
       </c>
       <c r="G90">
-        <v>-0.05062891196225637</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0106943088855194</v>
+      </c>
+      <c r="H90">
+        <v>-0.0526395343274506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3045258312261792</v>
+        <v>0.223515796292314</v>
       </c>
       <c r="C91">
-        <v>-0.1350064780404277</v>
+        <v>0.09676691768842656</v>
       </c>
       <c r="D91">
-        <v>0.07964084745321989</v>
+        <v>0.156255742158857</v>
       </c>
       <c r="E91">
-        <v>-0.1187305678388118</v>
+        <v>0.0109302616569939</v>
       </c>
       <c r="F91">
-        <v>0.2244345084654314</v>
+        <v>-0.08464602662184161</v>
       </c>
       <c r="G91">
-        <v>0.01231074366922361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1408219701799902</v>
+      </c>
+      <c r="H91">
+        <v>-0.1695741215519729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1746685804587393</v>
+        <v>0.2629678965132299</v>
       </c>
       <c r="C92">
-        <v>0.07423754724170344</v>
+        <v>0.04627499134724353</v>
       </c>
       <c r="D92">
-        <v>0.3765769378387989</v>
+        <v>-0.2271332418137492</v>
       </c>
       <c r="E92">
-        <v>0.2122195355653242</v>
+        <v>-0.0108566098697754</v>
       </c>
       <c r="F92">
-        <v>0.1029814151474301</v>
+        <v>-0.01585554760025942</v>
       </c>
       <c r="G92">
-        <v>-0.457308341742435</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02185265304318119</v>
+      </c>
+      <c r="H92">
+        <v>-0.1134684197776097</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09967292792790544</v>
+        <v>0.249820137874999</v>
       </c>
       <c r="C93">
-        <v>0.1219733834610372</v>
+        <v>-0.01293027794458944</v>
       </c>
       <c r="D93">
-        <v>0.2482552207067633</v>
+        <v>-0.3145139594222414</v>
       </c>
       <c r="E93">
-        <v>0.3654669810777354</v>
+        <v>0.02566081461691789</v>
       </c>
       <c r="F93">
-        <v>0.007006003848926396</v>
+        <v>0.0536648550077428</v>
       </c>
       <c r="G93">
-        <v>0.03839487923113115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.007000049916955476</v>
+      </c>
+      <c r="H93">
+        <v>0.01146941303580338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2996050493081883</v>
+        <v>0.2728382077280457</v>
       </c>
       <c r="C94">
-        <v>-0.1594521554150865</v>
+        <v>0.09208233162668375</v>
       </c>
       <c r="D94">
-        <v>0.1681413767714298</v>
+        <v>0.155756517910747</v>
       </c>
       <c r="E94">
-        <v>-0.1566748998644153</v>
+        <v>0.02954824183913174</v>
       </c>
       <c r="F94">
-        <v>0.1588744985533163</v>
+        <v>-0.1857366093068008</v>
       </c>
       <c r="G94">
-        <v>0.04064829551344724</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2349695757215819</v>
+      </c>
+      <c r="H94">
+        <v>-0.286393843124789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04779370725583475</v>
+        <v>0.05160433217115722</v>
       </c>
       <c r="C95">
-        <v>-0.04366456747688138</v>
+        <v>0.03500440934396044</v>
       </c>
       <c r="D95">
-        <v>-0.04952127657903865</v>
+        <v>0.08532764960961647</v>
       </c>
       <c r="E95">
-        <v>-0.05378306549701606</v>
+        <v>0.08333932901396554</v>
       </c>
       <c r="F95">
-        <v>-0.06718709853309286</v>
+        <v>0.006623393019999691</v>
       </c>
       <c r="G95">
-        <v>-0.2142976857746527</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04914420766258811</v>
+      </c>
+      <c r="H95">
+        <v>0.0525919878706031</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1630978052369778</v>
+        <v>0.1811796325955536</v>
       </c>
       <c r="C98">
-        <v>-0.05915278984457649</v>
+        <v>0.05611660493131953</v>
       </c>
       <c r="D98">
-        <v>-0.02733433529420148</v>
+        <v>0.04390345737527371</v>
       </c>
       <c r="E98">
-        <v>0.1388148636189681</v>
+        <v>0.05828863182502574</v>
       </c>
       <c r="F98">
-        <v>-0.1238656454740052</v>
+        <v>-0.008774248272436967</v>
       </c>
       <c r="G98">
-        <v>0.3554900890407312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07939558492009849</v>
+      </c>
+      <c r="H98">
+        <v>0.3411767044934519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006181687578077619</v>
+        <v>0.01613352543318284</v>
       </c>
       <c r="C101">
-        <v>-0.01009814924566132</v>
+        <v>0.0004605512570540322</v>
       </c>
       <c r="D101">
-        <v>-0.01877683733144664</v>
+        <v>0.01552255938912348</v>
       </c>
       <c r="E101">
-        <v>-0.06805907022669253</v>
+        <v>-0.00416982942253756</v>
       </c>
       <c r="F101">
-        <v>-0.1765990634142142</v>
+        <v>-0.01838550750220391</v>
       </c>
       <c r="G101">
-        <v>-0.05716781354674252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1011252987896771</v>
+      </c>
+      <c r="H101">
+        <v>-0.02071224150362877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1157762100224374</v>
+        <v>0.09844718615116364</v>
       </c>
       <c r="C102">
-        <v>-0.0470011791573141</v>
+        <v>0.03357803942832129</v>
       </c>
       <c r="D102">
-        <v>0.03110814177477548</v>
+        <v>0.08653796191065967</v>
       </c>
       <c r="E102">
-        <v>-0.07361868924315296</v>
+        <v>-0.00320529152452838</v>
       </c>
       <c r="F102">
-        <v>0.07976112022640124</v>
+        <v>-0.047073750027651</v>
       </c>
       <c r="G102">
-        <v>0.003150632041441257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.073425408102129</v>
+      </c>
+      <c r="H102">
+        <v>-0.06495405680939108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04332647291737991</v>
+        <v>0.01468983686875808</v>
       </c>
       <c r="C103">
-        <v>-0.004999317186466864</v>
+        <v>0.006169391803666553</v>
       </c>
       <c r="D103">
-        <v>0.009016682741740879</v>
+        <v>0.01521866042737714</v>
       </c>
       <c r="E103">
-        <v>-0.05137245562886193</v>
+        <v>-0.009649055361391608</v>
       </c>
       <c r="F103">
-        <v>-0.01069616719926812</v>
+        <v>-0.006833272996955014</v>
       </c>
       <c r="G103">
-        <v>-0.03569384165466249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001493645113035998</v>
+      </c>
+      <c r="H103">
+        <v>-0.01098593931634266</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1780920371034547</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9565353899929449</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1554051640905101</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02860682506991221</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1300901338155606</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01205450659904407</v>
+      </c>
+      <c r="H104">
+        <v>-0.04904866453644665</v>
       </c>
     </row>
   </sheetData>
